--- a/data/trans_orig/P36B05-Estudios-trans_orig.xlsx
+++ b/data/trans_orig/P36B05-Estudios-trans_orig.xlsx
@@ -744,19 +744,19 @@
         <v>17253</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>10654</v>
+        <v>10903</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>26536</v>
+        <v>27338</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.01672208035512611</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01032686679355194</v>
+        <v>0.01056792049801417</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.02572009341776505</v>
+        <v>0.02649776466489572</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>24</v>
@@ -765,19 +765,19 @@
         <v>25374</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>16702</v>
+        <v>16526</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>37460</v>
+        <v>38445</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01932327666572187</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.0127194679202957</v>
+        <v>0.01258545191224171</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02852711057688247</v>
+        <v>0.02927734269835411</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>43</v>
@@ -786,19 +786,19 @@
         <v>42626</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>30961</v>
+        <v>31083</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>57698</v>
+        <v>57628</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01817876114061761</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01320394221548429</v>
+        <v>0.01325588240616823</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02460648138784752</v>
+        <v>0.02457635181554032</v>
       </c>
     </row>
     <row r="5">
@@ -815,19 +815,19 @@
         <v>126863</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>107293</v>
+        <v>108794</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>150140</v>
+        <v>148219</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1229620721063822</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1039944032553138</v>
+        <v>0.1054485481526652</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1455239961919694</v>
+        <v>0.143661266185999</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>129</v>
@@ -836,19 +836,19 @@
         <v>131759</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>109774</v>
+        <v>112929</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>153391</v>
+        <v>155723</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1003399964565093</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.08359721720346383</v>
+        <v>0.08600001151790776</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1168140202475026</v>
+        <v>0.1185897028773928</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>258</v>
@@ -857,19 +857,19 @@
         <v>258622</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>231033</v>
+        <v>227428</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>290402</v>
+        <v>289599</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1102936153686599</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.09852802039608106</v>
+        <v>0.09699043563432336</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1238470664558907</v>
+        <v>0.123504322846183</v>
       </c>
     </row>
     <row r="6">
@@ -886,19 +886,19 @@
         <v>597543</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>568444</v>
+        <v>565261</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>630634</v>
+        <v>628264</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5791698067064195</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5509654987119829</v>
+        <v>0.5478806652036944</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.6112432090736849</v>
+        <v>0.6089461494863605</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>737</v>
@@ -907,19 +907,19 @@
         <v>754798</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>721593</v>
+        <v>717099</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>790509</v>
+        <v>787603</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5748111743602701</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5495238355263282</v>
+        <v>0.5461013063821234</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.6020061948521274</v>
+        <v>0.599792968022216</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1336</v>
@@ -928,19 +928,19 @@
         <v>1352341</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1303042</v>
+        <v>1305795</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1398341</v>
+        <v>1399248</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5767289544094225</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5557045621372719</v>
+        <v>0.5568783448698591</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.596346513022343</v>
+        <v>0.5967333535980163</v>
       </c>
     </row>
     <row r="7">
@@ -957,19 +957,19 @@
         <v>256750</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>231390</v>
+        <v>230120</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>285306</v>
+        <v>287362</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2488551951261155</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2242754907226438</v>
+        <v>0.2230441362571413</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.276533388026679</v>
+        <v>0.2785261070277379</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>369</v>
@@ -978,19 +978,19 @@
         <v>370583</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>337925</v>
+        <v>339532</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>402729</v>
+        <v>401868</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2822147625713759</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2573444918103229</v>
+        <v>0.2585684742309873</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3066953156980612</v>
+        <v>0.3060399360156726</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>627</v>
@@ -999,19 +999,19 @@
         <v>627333</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>582867</v>
+        <v>588986</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>674485</v>
+        <v>669380</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.267536692063457</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2485734114524139</v>
+        <v>0.2511831498833365</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2876457922439998</v>
+        <v>0.2854683308723245</v>
       </c>
     </row>
     <row r="8">
@@ -1028,19 +1028,19 @@
         <v>33315</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>23217</v>
+        <v>21984</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>46045</v>
+        <v>45209</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03229084570595676</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02250291831452544</v>
+        <v>0.02130778216060856</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.0446295684527989</v>
+        <v>0.04381929673242699</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>30</v>
@@ -1049,19 +1049,19 @@
         <v>30610</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>20734</v>
+        <v>21218</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>43057</v>
+        <v>44392</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02331078994612285</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01579013800874281</v>
+        <v>0.01615878605849243</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.03279003725390396</v>
+        <v>0.03380619446608711</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>63</v>
@@ -1070,19 +1070,19 @@
         <v>63925</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>50692</v>
+        <v>49247</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>81617</v>
+        <v>83536</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.02726197701784288</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02161835184433331</v>
+        <v>0.02100229041613226</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03480707212217023</v>
+        <v>0.03562521223273287</v>
       </c>
     </row>
     <row r="9">
@@ -1174,19 +1174,19 @@
         <v>11322</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>5904</v>
+        <v>5926</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>19968</v>
+        <v>19171</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.006697203661676544</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.003492756513847767</v>
+        <v>0.003505522597100759</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01181203798926658</v>
+        <v>0.01134045273218822</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -1195,19 +1195,19 @@
         <v>19148</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>11208</v>
+        <v>11653</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>29224</v>
+        <v>30137</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01207584834577029</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.00706817566724998</v>
+        <v>0.007348806175680545</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01843027834950537</v>
+        <v>0.01900617877026786</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>30</v>
@@ -1216,19 +1216,19 @@
         <v>30469</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>20422</v>
+        <v>21101</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>42672</v>
+        <v>42502</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009300448987226196</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006233470844439384</v>
+        <v>0.006440958527136467</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01302520538706166</v>
+        <v>0.01297328091595016</v>
       </c>
     </row>
     <row r="11">
@@ -1245,19 +1245,19 @@
         <v>118696</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>98726</v>
+        <v>100441</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>142443</v>
+        <v>141396</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.07021402921225811</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.05840077717938991</v>
+        <v>0.05941508238533805</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08426109428147535</v>
+        <v>0.08364211683541287</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>101</v>
@@ -1266,19 +1266,19 @@
         <v>107782</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>87136</v>
+        <v>88628</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>129893</v>
+        <v>129510</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.06797383565147905</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05495373817779043</v>
+        <v>0.05589410108909928</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.08191856392354682</v>
+        <v>0.08167734705119276</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>222</v>
@@ -1287,19 +1287,19 @@
         <v>226478</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>200813</v>
+        <v>198263</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>262291</v>
+        <v>259755</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.06912978331799578</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.0612958211704118</v>
+        <v>0.06051750227747704</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08006133388045385</v>
+        <v>0.07928739281362024</v>
       </c>
     </row>
     <row r="12">
@@ -1316,19 +1316,19 @@
         <v>910380</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>867608</v>
+        <v>867737</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>950136</v>
+        <v>952898</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5385293810739247</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5132283808507744</v>
+        <v>0.5133041507920092</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5620467847126221</v>
+        <v>0.5636810855735661</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>891</v>
@@ -1337,19 +1337,19 @@
         <v>907396</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>870989</v>
+        <v>868503</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>949302</v>
+        <v>947785</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5722610596258162</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5493005991783022</v>
+        <v>0.5477329404951061</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5986896097422792</v>
+        <v>0.5977330977021094</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1777</v>
@@ -1358,19 +1358,19 @@
         <v>1817776</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1754550</v>
+        <v>1761006</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>1869695</v>
+        <v>1874172</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5548553962079678</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5355565537211776</v>
+        <v>0.5375271019578141</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.570703072699918</v>
+        <v>0.5720697952783618</v>
       </c>
     </row>
     <row r="13">
@@ -1387,19 +1387,19 @@
         <v>604726</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>564900</v>
+        <v>564139</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>647822</v>
+        <v>643345</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3577221676401162</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3341628159851938</v>
+        <v>0.3337129624031149</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3832153546957768</v>
+        <v>0.3805664465403476</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>505</v>
@@ -1408,19 +1408,19 @@
         <v>512538</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>475212</v>
+        <v>476649</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>547290</v>
+        <v>550070</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3232388091082386</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2996988343171473</v>
+        <v>0.3006048760854396</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3451553694489094</v>
+        <v>0.3469087928828992</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1088</v>
@@ -1429,19 +1429,19 @@
         <v>1117265</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1068779</v>
+        <v>1064692</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1178881</v>
+        <v>1171339</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3410323420093517</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3262325336998665</v>
+        <v>0.3249851159614414</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3598401103775521</v>
+        <v>0.3575379267882214</v>
       </c>
     </row>
     <row r="14">
@@ -1458,19 +1458,19 @@
         <v>45368</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>33702</v>
+        <v>32931</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>59831</v>
+        <v>60557</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.02683721841202447</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.01993594815312572</v>
+        <v>0.01948036794890987</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03539275327171545</v>
+        <v>0.03582226480010327</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>37</v>
@@ -1479,19 +1479,19 @@
         <v>38769</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>27455</v>
+        <v>27924</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>52642</v>
+        <v>55948</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.0244504472686959</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01731461844473699</v>
+        <v>0.01761058116572454</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03319937402162861</v>
+        <v>0.03528405754171259</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>81</v>
@@ -1500,19 +1500,19 @@
         <v>84138</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>67365</v>
+        <v>66808</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>104404</v>
+        <v>103398</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02568202947745855</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.020562539818443</v>
+        <v>0.02039230377027098</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03186800298070207</v>
+        <v>0.03156100671849135</v>
       </c>
     </row>
     <row r="15">
@@ -1604,19 +1604,19 @@
         <v>7183</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>3383</v>
+        <v>2799</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>16079</v>
+        <v>14496</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.01302720229439213</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.006135123008438042</v>
+        <v>0.005076384523344988</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02915943049104192</v>
+        <v>0.02628856112555947</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>6</v>
@@ -1625,19 +1625,19 @@
         <v>6048</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>2022</v>
+        <v>2032</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>12169</v>
+        <v>12239</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.01272194999609362</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.004253210993656564</v>
+        <v>0.00427460729218045</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.02559689536250368</v>
+        <v>0.02574476626423662</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>13</v>
@@ -1646,19 +1646,19 @@
         <v>13231</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>6867</v>
+        <v>7529</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>22554</v>
+        <v>22347</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01288587204290073</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.006688019482185643</v>
+        <v>0.007332579124789576</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.02196503618541292</v>
+        <v>0.02176287591365427</v>
       </c>
     </row>
     <row r="17">
@@ -1675,19 +1675,19 @@
         <v>35736</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>24211</v>
+        <v>23885</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>50162</v>
+        <v>50474</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.06480842719269858</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.04390731420866512</v>
+        <v>0.04331645176409908</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.09097048456167413</v>
+        <v>0.09153619652861972</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>28</v>
@@ -1696,19 +1696,19 @@
         <v>29587</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>20149</v>
+        <v>20091</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>40779</v>
+        <v>40947</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.06223429782013233</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.04238217531334069</v>
+        <v>0.04226095762621566</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.08577603984783611</v>
+        <v>0.08612850342116339</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>58</v>
@@ -1717,19 +1717,19 @@
         <v>65323</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>50048</v>
+        <v>50382</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>83344</v>
+        <v>84394</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06361661847045788</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04874077736806094</v>
+        <v>0.04906638771305625</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08116733178547587</v>
+        <v>0.08218971501295209</v>
       </c>
     </row>
     <row r="18">
@@ -1746,19 +1746,19 @@
         <v>300442</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>274964</v>
+        <v>277445</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>324795</v>
+        <v>324908</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5448635235105622</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.498657436818444</v>
+        <v>0.5031575666215419</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5890287831529177</v>
+        <v>0.5892337319051086</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>269</v>
@@ -1767,19 +1767,19 @@
         <v>283973</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>260573</v>
+        <v>263385</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>306384</v>
+        <v>305444</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5973178341951005</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5480984564938526</v>
+        <v>0.5540121881500567</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6444593275142518</v>
+        <v>0.6424808195646595</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>558</v>
@@ -1788,19 +1788,19 @@
         <v>584415</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>553411</v>
+        <v>552678</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>617615</v>
+        <v>619891</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5691496008379934</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5389560525430663</v>
+        <v>0.5382419177326624</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6014827077050244</v>
+        <v>0.6036995662511759</v>
       </c>
     </row>
     <row r="19">
@@ -1817,19 +1817,19 @@
         <v>187039</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>165263</v>
+        <v>165025</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>210168</v>
+        <v>210836</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.339203441884613</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2997100396874466</v>
+        <v>0.2992786001315406</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.381148114587888</v>
+        <v>0.3823584976855008</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>143</v>
@@ -1838,19 +1838,19 @@
         <v>150106</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>129691</v>
+        <v>131185</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>172123</v>
+        <v>170764</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3157374325646781</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2727957561928023</v>
+        <v>0.2759397147147773</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3620489382074166</v>
+        <v>0.3591906537289855</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>323</v>
@@ -1859,19 +1859,19 @@
         <v>337145</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>308334</v>
+        <v>308623</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>367343</v>
+        <v>372158</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3283387996946215</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3002805389130929</v>
+        <v>0.3005618089490916</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3577479422855582</v>
+        <v>0.362437091256358</v>
       </c>
     </row>
     <row r="20">
@@ -1888,19 +1888,19 @@
         <v>21007</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>12547</v>
+        <v>13220</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>31641</v>
+        <v>30845</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.03809740511773402</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.02275501519413814</v>
+        <v>0.02397408222527123</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.05738282955350656</v>
+        <v>0.05593846963461995</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>5</v>
@@ -1909,19 +1909,19 @@
         <v>5699</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>2083</v>
+        <v>2041</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>13750</v>
+        <v>12645</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01198848542399543</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.004381081206468569</v>
+        <v>0.004292240320711191</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.02892172400355844</v>
+        <v>0.02659817606211306</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>26</v>
@@ -1930,19 +1930,19 @@
         <v>26707</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>17430</v>
+        <v>18125</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>37825</v>
+        <v>38068</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02600910895402649</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01697439467092893</v>
+        <v>0.01765152253127702</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03683662588441464</v>
+        <v>0.03707337804661495</v>
       </c>
     </row>
     <row r="21">
@@ -2034,19 +2034,19 @@
         <v>35757</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>25954</v>
+        <v>25837</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>48999</v>
+        <v>49173</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01092289097585451</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007928260559274963</v>
+        <v>0.007892481713099316</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01496785175032841</v>
+        <v>0.01502106747901031</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>48</v>
@@ -2055,19 +2055,19 @@
         <v>50570</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>38010</v>
+        <v>36993</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>67033</v>
+        <v>65994</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01498736072802554</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.01126499634928448</v>
+        <v>0.01096360499873639</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01986666025747906</v>
+        <v>0.01955845621970876</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>86</v>
@@ -2076,19 +2076,19 @@
         <v>86327</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>69590</v>
+        <v>67197</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>105439</v>
+        <v>105147</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01298586319276554</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01046814223857731</v>
+        <v>0.01010818849910362</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01586076675035768</v>
+        <v>0.01581688811942222</v>
       </c>
     </row>
     <row r="23">
@@ -2105,19 +2105,19 @@
         <v>281295</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>251716</v>
+        <v>249426</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>314195</v>
+        <v>314326</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.08592771229897317</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.07689224222849775</v>
+        <v>0.07619266084458491</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.0959776868171564</v>
+        <v>0.09601780779925354</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>258</v>
@@ -2126,19 +2126,19 @@
         <v>269127</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>237858</v>
+        <v>240290</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>302684</v>
+        <v>303983</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.07976107118715453</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.0704938537687332</v>
+        <v>0.07121455611863409</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.08970619678099674</v>
+        <v>0.09009105265641466</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>538</v>
@@ -2147,19 +2147,19 @@
         <v>550422</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>504638</v>
+        <v>507004</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>599983</v>
+        <v>593182</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.08279775684081089</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07591055025331896</v>
+        <v>0.07626656977569916</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.09025296806125818</v>
+        <v>0.08922998868859189</v>
       </c>
     </row>
     <row r="24">
@@ -2176,19 +2176,19 @@
         <v>1808365</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1749314</v>
+        <v>1752179</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1860397</v>
+        <v>1863320</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5524046369061354</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5343663326925263</v>
+        <v>0.5352414566730669</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5682990739195389</v>
+        <v>0.5691918625542235</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1897</v>
@@ -2197,19 +2197,19 @@
         <v>1946167</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1886600</v>
+        <v>1892644</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2008136</v>
+        <v>2001676</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5767839278787068</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5591302188345036</v>
+        <v>0.560921495719267</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5951495008197503</v>
+        <v>0.593235168899222</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3671</v>
@@ -2218,19 +2218,19 @@
         <v>3754531</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3676268</v>
+        <v>3681554</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3832645</v>
+        <v>3841550</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5647786495107415</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5530058483615901</v>
+        <v>0.5538010561968445</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5765290462135931</v>
+        <v>0.5778686105348779</v>
       </c>
     </row>
     <row r="25">
@@ -2247,19 +2247,19 @@
         <v>1048516</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>995503</v>
+        <v>993095</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1097587</v>
+        <v>1099288</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3202921008548155</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.3040981783447234</v>
+        <v>0.3033626970674471</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3352820749023463</v>
+        <v>0.3358017935212885</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1017</v>
@@ -2268,19 +2268,19 @@
         <v>1033227</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>977839</v>
+        <v>984732</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1087132</v>
+        <v>1088266</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3062165743040188</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.28980141760012</v>
+        <v>0.2918441592744594</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3221925120877141</v>
+        <v>0.322528361085173</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2038</v>
@@ -2289,19 +2289,19 @@
         <v>2081742</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2005841</v>
+        <v>2004284</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2156485</v>
+        <v>2154179</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3131478921429222</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3017304443961648</v>
+        <v>0.301496207013382</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3243911853438235</v>
+        <v>0.3240442359224415</v>
       </c>
     </row>
     <row r="26">
@@ -2318,19 +2318,19 @@
         <v>99691</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>81532</v>
+        <v>80037</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>120132</v>
+        <v>121942</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0304526589642214</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02490570181722747</v>
+        <v>0.02444899381701849</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03669686811061507</v>
+        <v>0.03724982266720478</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>72</v>
@@ -2339,19 +2339,19 @@
         <v>75079</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>58034</v>
+        <v>58819</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>93088</v>
+        <v>92842</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02225106590209433</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01719935385507776</v>
+        <v>0.01743208530130228</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0275882812850316</v>
+        <v>0.02751537168475014</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>170</v>
@@ -2360,19 +2360,19 @@
         <v>174769</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>148265</v>
+        <v>149210</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>203760</v>
+        <v>199935</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02628983831275984</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02230294226287776</v>
+        <v>0.02244507446426827</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03065079918112194</v>
+        <v>0.03007547368848062</v>
       </c>
     </row>
     <row r="27">
@@ -2703,19 +2703,19 @@
         <v>30307</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>20258</v>
+        <v>21348</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>43457</v>
+        <v>41956</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03119509157821054</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02085183843436195</v>
+        <v>0.02197343106501864</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04473094150774436</v>
+        <v>0.04318567545679862</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>20</v>
@@ -2724,19 +2724,19 @@
         <v>21117</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13394</v>
+        <v>13327</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>31427</v>
+        <v>32060</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01582055078112749</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01003472430241192</v>
+        <v>0.009983862883708937</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.02354402704402588</v>
+        <v>0.02401859369231994</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>50</v>
@@ -2745,19 +2745,19 @@
         <v>51424</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>38688</v>
+        <v>39455</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>67741</v>
+        <v>67218</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02229696586494382</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01677440412297455</v>
+        <v>0.01710710068244778</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02937168453258515</v>
+        <v>0.02914502570025759</v>
       </c>
     </row>
     <row r="5">
@@ -2774,19 +2774,19 @@
         <v>168073</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>144297</v>
+        <v>143862</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>195005</v>
+        <v>191867</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1729980313251221</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1485257704582683</v>
+        <v>0.1480773572713788</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.2007192197697507</v>
+        <v>0.1974898923172507</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>195</v>
@@ -2795,19 +2795,19 @@
         <v>210226</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>180902</v>
+        <v>182999</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>236824</v>
+        <v>239295</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1574949813974328</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1355263117276196</v>
+        <v>0.1370969696651617</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1774214837632244</v>
+        <v>0.1792720659173878</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>351</v>
@@ -2816,19 +2816,19 @@
         <v>378299</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>343694</v>
+        <v>343104</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>414040</v>
+        <v>415988</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1640255300311776</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1490212278349983</v>
+        <v>0.148765308449579</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1795221734939364</v>
+        <v>0.1803671005738115</v>
       </c>
     </row>
     <row r="6">
@@ -2845,19 +2845,19 @@
         <v>539462</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>508659</v>
+        <v>507591</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>569954</v>
+        <v>572456</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5552709639315947</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5235644844325712</v>
+        <v>0.5224651697566192</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5866561401156761</v>
+        <v>0.5892309476387786</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>706</v>
@@ -2866,19 +2866,19 @@
         <v>755158</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>719756</v>
+        <v>716828</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>795290</v>
+        <v>791260</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5657412127173502</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5392188726651493</v>
+        <v>0.5370252009611457</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5958064239597523</v>
+        <v>0.5927875886861582</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1207</v>
@@ -2887,19 +2887,19 @@
         <v>1294621</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>1247664</v>
+        <v>1248316</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1340773</v>
+        <v>1347540</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5613306954822441</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5409706591678956</v>
+        <v>0.5412536062689247</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5813413482873887</v>
+        <v>0.5842754341379133</v>
       </c>
     </row>
     <row r="7">
@@ -2916,19 +2916,19 @@
         <v>223133</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>200296</v>
+        <v>197819</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>253083</v>
+        <v>250664</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2296715338931476</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2061659498174875</v>
+        <v>0.2036157456085496</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2604998188214599</v>
+        <v>0.258009490444413</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>308</v>
@@ -2937,19 +2937,19 @@
         <v>331335</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>301440</v>
+        <v>299658</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>364592</v>
+        <v>363835</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.2482259081063684</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.2258296194547065</v>
+        <v>0.2244949076398998</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2731412516355858</v>
+        <v>0.2725741876010129</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>516</v>
@@ -2958,19 +2958,19 @@
         <v>554468</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>512117</v>
+        <v>512575</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>596226</v>
+        <v>600460</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.2404100109936511</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2220470984468277</v>
+        <v>0.2222459347633922</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2585157297403641</v>
+        <v>0.2603516337974475</v>
       </c>
     </row>
     <row r="8">
@@ -2987,19 +2987,19 @@
         <v>10555</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>5151</v>
+        <v>5074</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>19060</v>
+        <v>19119</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.01086437927192497</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.005301710515732243</v>
+        <v>0.005222358131608309</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.01961831524314967</v>
+        <v>0.01967961883172506</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>16</v>
@@ -3008,19 +3008,19 @@
         <v>16975</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>9990</v>
+        <v>9954</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>27732</v>
+        <v>27362</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.01271734699772118</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.007484524822968123</v>
+        <v>0.007457105943709349</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.02077572266437412</v>
+        <v>0.0204985786219619</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>26</v>
@@ -3029,19 +3029,19 @@
         <v>27530</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>18471</v>
+        <v>17546</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>41014</v>
+        <v>39993</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.01193679762798337</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.008008922796887195</v>
+        <v>0.007607582411214033</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.01778300836994239</v>
+        <v>0.01734064625041208</v>
       </c>
     </row>
     <row r="9">
@@ -3133,19 +3133,19 @@
         <v>20359</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>11984</v>
+        <v>12551</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>32098</v>
+        <v>31518</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.01037117996518949</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.006104929054441767</v>
+        <v>0.006393870949719069</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01635131342508402</v>
+        <v>0.01605570541263395</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>12</v>
@@ -3154,19 +3154,19 @@
         <v>14751</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>7888</v>
+        <v>7968</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>26320</v>
+        <v>25494</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.00841532036828708</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.004500042280789576</v>
+        <v>0.00454570557402259</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01501557602965526</v>
+        <v>0.01454443057661028</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>31</v>
@@ -3175,19 +3175,19 @@
         <v>35110</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>24870</v>
+        <v>23981</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>49835</v>
+        <v>50992</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009448572109258474</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006692865320948506</v>
+        <v>0.006453632694585494</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01341136193736913</v>
+        <v>0.01372282609480022</v>
       </c>
     </row>
     <row r="11">
@@ -3204,19 +3204,19 @@
         <v>134221</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>114337</v>
+        <v>113050</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>160066</v>
+        <v>158413</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.06837366268187962</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.0582445573158485</v>
+        <v>0.05758909968792936</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.08153971498329585</v>
+        <v>0.08069731446538154</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>128</v>
@@ -3225,19 +3225,19 @@
         <v>137977</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>115839</v>
+        <v>115840</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>162759</v>
+        <v>163948</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.07871630265859261</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.06608679645874081</v>
+        <v>0.06608729420430423</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.09285451897320965</v>
+        <v>0.09353268374168092</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>258</v>
@@ -3246,19 +3246,19 @@
         <v>272198</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>240913</v>
+        <v>244143</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>309295</v>
+        <v>310074</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.07325243869867244</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.06483320684056584</v>
+        <v>0.06570258797825126</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.08323600160829417</v>
+        <v>0.08344559920884091</v>
       </c>
     </row>
     <row r="12">
@@ -3275,19 +3275,19 @@
         <v>1053488</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1008349</v>
+        <v>1003415</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1098857</v>
+        <v>1098472</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5366593892301855</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5136652269959316</v>
+        <v>0.5111516857061638</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5597710360313067</v>
+        <v>0.5595750550380734</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>902</v>
@@ -3296,19 +3296,19 @@
         <v>974170</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>934020</v>
+        <v>934223</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1016627</v>
+        <v>1022731</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5557673366796615</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5328618019301125</v>
+        <v>0.5329777803281205</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.5799893112579244</v>
+        <v>0.5834716830854412</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>1885</v>
@@ -3317,19 +3317,19 @@
         <v>2027657</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>1971044</v>
+        <v>1967346</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2088210</v>
+        <v>2088117</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5456728902276619</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5304374281525391</v>
+        <v>0.5294421265955617</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5619684878146118</v>
+        <v>0.5619436369158982</v>
       </c>
     </row>
     <row r="13">
@@ -3346,19 +3346,19 @@
         <v>693606</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>650081</v>
+        <v>651991</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>735820</v>
+        <v>740948</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.3533313390368042</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3311589228629653</v>
+        <v>0.3321320085033682</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.3748356576353452</v>
+        <v>0.3774479639628027</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>542</v>
@@ -3367,19 +3367,19 @@
         <v>577348</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>537778</v>
+        <v>535084</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>616071</v>
+        <v>618513</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3293794084760084</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3068040840964731</v>
+        <v>0.3052675903585896</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.3514709027096366</v>
+        <v>0.3528640399287743</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1206</v>
@@ -3388,19 +3388,19 @@
         <v>1270954</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1210973</v>
+        <v>1211123</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1329224</v>
+        <v>1332284</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.3420328596699302</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.3258909253953786</v>
+        <v>0.3259312477428271</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3577139418501122</v>
+        <v>0.3585375694021149</v>
       </c>
     </row>
     <row r="14">
@@ -3417,19 +3417,19 @@
         <v>61374</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>47447</v>
+        <v>46997</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>78512</v>
+        <v>79135</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03126442908594118</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02416998071677931</v>
+        <v>0.02394088122374158</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.0399951969578612</v>
+        <v>0.04031249275073467</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>47</v>
@@ -3438,19 +3438,19 @@
         <v>48592</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>36871</v>
+        <v>34994</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>64415</v>
+        <v>63503</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02772163181745041</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.02103511543258955</v>
+        <v>0.01996436383958654</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.03674894852507661</v>
+        <v>0.03622876263736523</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>106</v>
@@ -3459,19 +3459,19 @@
         <v>109965</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>90936</v>
+        <v>89788</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>132337</v>
+        <v>131648</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02959323929447701</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.02447234246821888</v>
+        <v>0.02416338884711817</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03561396672574645</v>
+        <v>0.03542845478622544</v>
       </c>
     </row>
     <row r="15">
@@ -3563,19 +3563,19 @@
         <v>4085</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>937</v>
+        <v>939</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>13118</v>
+        <v>14286</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.008527901150667582</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.001957040101140829</v>
+        <v>0.001959683698106842</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.02738534649850859</v>
+        <v>0.02982379672662541</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>2</v>
@@ -3587,7 +3587,7 @@
         <v>0</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>9099</v>
+        <v>7166</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.00501683305922933</v>
@@ -3596,7 +3596,7 @@
         <v>0</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01988404596684198</v>
+        <v>0.01565859701177166</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>5</v>
@@ -3605,19 +3605,19 @@
         <v>6381</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>1949</v>
+        <v>1941</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>15354</v>
+        <v>16961</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.006812477176762727</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.002081184970043975</v>
+        <v>0.002072717252973588</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01639281973616873</v>
+        <v>0.0181089571970595</v>
       </c>
     </row>
     <row r="17">
@@ -3634,19 +3634,19 @@
         <v>21371</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>12757</v>
+        <v>13626</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>33852</v>
+        <v>34754</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.04461498736972698</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.02663103575710498</v>
+        <v>0.02844680855521692</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.07067048555727803</v>
+        <v>0.07255374096665729</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>36</v>
@@ -3655,19 +3655,19 @@
         <v>40089</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>28657</v>
+        <v>28129</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>53357</v>
+        <v>53639</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.08760376396489902</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.0626230890417669</v>
+        <v>0.06146959044276336</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1165985834045867</v>
+        <v>0.1172139784152429</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>53</v>
@@ -3676,19 +3676,19 @@
         <v>61460</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>46726</v>
+        <v>46733</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>82352</v>
+        <v>79618</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.06561827641445468</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.04988761113169634</v>
+        <v>0.04989473666410705</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.08792474125575848</v>
+        <v>0.08500537323226161</v>
       </c>
     </row>
     <row r="18">
@@ -3705,19 +3705,19 @@
         <v>263353</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>239664</v>
+        <v>240373</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>282794</v>
+        <v>286470</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5497844744121846</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5003296848625634</v>
+        <v>0.5018106027254647</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.5903689360932979</v>
+        <v>0.5980435506609135</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>233</v>
@@ -3726,19 +3726,19 @@
         <v>258727</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>234185</v>
+        <v>237000</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>281193</v>
+        <v>280707</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5653856392442927</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5117555785411722</v>
+        <v>0.5179069669817024</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6144779933529673</v>
+        <v>0.613416501624743</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>467</v>
@@ -3747,19 +3747,19 @@
         <v>522080</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>489458</v>
+        <v>490103</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>554279</v>
+        <v>554142</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5574068307655405</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5225771666888552</v>
+        <v>0.5232665112406036</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.5917841984798869</v>
+        <v>0.5916383435164591</v>
       </c>
     </row>
     <row r="19">
@@ -3776,19 +3776,19 @@
         <v>164107</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>143961</v>
+        <v>142904</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>184203</v>
+        <v>186517</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.342595287628624</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.300536373658752</v>
+        <v>0.2983300683546725</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3845473412353898</v>
+        <v>0.3893777342322158</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>131</v>
@@ -3797,19 +3797,19 @@
         <v>146296</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>126126</v>
+        <v>125271</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>169276</v>
+        <v>166106</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.3196934198671513</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2756171773756894</v>
+        <v>0.2737499106314759</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.3699122804965495</v>
+        <v>0.362984585570796</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>289</v>
@@ -3818,19 +3818,19 @@
         <v>310402</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>284545</v>
+        <v>282746</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>342974</v>
+        <v>343391</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.3314059822713656</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.3037985429900093</v>
+        <v>0.3018786094543394</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3661809654626051</v>
+        <v>0.3666267336812088</v>
       </c>
     </row>
     <row r="20">
@@ -3847,19 +3847,19 @@
         <v>26095</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>17409</v>
+        <v>17599</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>39933</v>
+        <v>38202</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.05447734943879679</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.03634277526078436</v>
+        <v>0.03674108380566807</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.0833643386081792</v>
+        <v>0.07975098007990469</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -3868,19 +3868,19 @@
         <v>10205</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4970</v>
+        <v>4984</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19873</v>
+        <v>18675</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.02230034386442768</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.01086167157467059</v>
+        <v>0.01089137683531879</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.04342814814210286</v>
+        <v>0.04081002458056765</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>34</v>
@@ -3889,19 +3889,19 @@
         <v>36300</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>26213</v>
+        <v>24740</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>51183</v>
+        <v>49863</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.03875643337187645</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.02798633653563858</v>
+        <v>0.0264135270048719</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.05464653703137284</v>
+        <v>0.05323704753379067</v>
       </c>
     </row>
     <row r="21">
@@ -3993,19 +3993,19 @@
         <v>54751</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>40812</v>
+        <v>42318</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>70100</v>
+        <v>72817</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01603914796131231</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.0119557106481609</v>
+        <v>0.01239687801510403</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.02053545373137257</v>
+        <v>0.02133140632390671</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>34</v>
@@ -4014,19 +4014,19 @@
         <v>38164</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>26230</v>
+        <v>26644</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>53908</v>
+        <v>52655</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01076476781237175</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.007398649466751765</v>
+        <v>0.007515424472189865</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.0152055607163885</v>
+        <v>0.01485234198104572</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>86</v>
@@ -4035,19 +4035,19 @@
         <v>92915</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>74540</v>
+        <v>74131</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>115501</v>
+        <v>116810</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01335205786771736</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.01071155875714598</v>
+        <v>0.01065276364678523</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01659764332132631</v>
+        <v>0.01678585464171899</v>
       </c>
     </row>
     <row r="23">
@@ -4064,19 +4064,19 @@
         <v>323665</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>292483</v>
+        <v>287103</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>362011</v>
+        <v>357351</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.09481653056677956</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.08568202694361274</v>
+        <v>0.08410582344787942</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1060500372639119</v>
+        <v>0.1046848721748862</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>359</v>
@@ -4085,19 +4085,19 @@
         <v>388292</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>352786</v>
+        <v>354626</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>430435</v>
+        <v>429016</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1095241189518022</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.09950917748964948</v>
+        <v>0.1000282897543761</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1214113244757105</v>
+        <v>0.1210110365916988</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>662</v>
@@ -4106,19 +4106,19 @@
         <v>711956</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>656048</v>
+        <v>657538</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>762486</v>
+        <v>765162</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1023094707671565</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.0942753294073794</v>
+        <v>0.09448939788035959</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1095706943256425</v>
+        <v>0.1099552779058618</v>
       </c>
     </row>
     <row r="24">
@@ -4135,19 +4135,19 @@
         <v>1856303</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1797428</v>
+        <v>1797925</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1919776</v>
+        <v>1918310</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5437981458216299</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5265506988905031</v>
+        <v>0.5266963427465322</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5623922202603163</v>
+        <v>0.5619629001048085</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1841</v>
@@ -4156,19 +4156,19 @@
         <v>1988056</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>1927627</v>
+        <v>1930074</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2050404</v>
+        <v>2046248</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.560764063206167</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5437192614259208</v>
+        <v>0.5444093449443379</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5783504248143481</v>
+        <v>0.5771781557098832</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3559</v>
@@ -4177,19 +4177,19 @@
         <v>3844358</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3758564</v>
+        <v>3757775</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>3926768</v>
+        <v>3930211</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5524416161907305</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.540112839658776</v>
+        <v>0.5399994759195912</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5642840385438903</v>
+        <v>0.5647788064123673</v>
       </c>
     </row>
     <row r="25">
@@ -4206,19 +4206,19 @@
         <v>1080846</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1017817</v>
+        <v>1019447</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1132034</v>
+        <v>1137137</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.3166303871742123</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2981662797157984</v>
+        <v>0.2986437097749826</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3316256178143747</v>
+        <v>0.3331205649633389</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>981</v>
@@ -4227,19 +4227,19 @@
         <v>1054979</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1001517</v>
+        <v>993209</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1112319</v>
+        <v>1108556</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2975743859424541</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2824943922916501</v>
+        <v>0.2801510638578423</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3137480916970659</v>
+        <v>0.3126865018541537</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2011</v>
@@ -4248,19 +4248,19 @@
         <v>2135825</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2059226</v>
+        <v>2055320</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2212397</v>
+        <v>2210044</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3069221009514841</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2959146525075674</v>
+        <v>0.2953534430722194</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3179257047627714</v>
+        <v>0.3175874607941406</v>
       </c>
     </row>
     <row r="26">
@@ -4277,19 +4277,19 @@
         <v>98024</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>78699</v>
+        <v>79646</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>119515</v>
+        <v>120695</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.0287157884760659</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02305459477753936</v>
+        <v>0.023331907550947</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03501156027017008</v>
+        <v>0.03535717402490671</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>72</v>
@@ -4298,19 +4298,19 @@
         <v>75772</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>60089</v>
+        <v>59598</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>96579</v>
+        <v>94643</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.02137266408720493</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01694910400843969</v>
+        <v>0.01681050750351447</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.0272417062056578</v>
+        <v>0.0266957593561249</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>166</v>
@@ -4319,19 +4319,19 @@
         <v>173796</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>148285</v>
+        <v>148870</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>204031</v>
+        <v>200165</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.02497475422291158</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02130876721266258</v>
+        <v>0.02139291510097845</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02931971421030251</v>
+        <v>0.02876408897586944</v>
       </c>
     </row>
     <row r="27">
@@ -4662,19 +4662,19 @@
         <v>26998</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>18589</v>
+        <v>18062</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>38702</v>
+        <v>37980</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.03583471616861851</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.02467320491736712</v>
+        <v>0.02397302311701652</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.05136857341800348</v>
+        <v>0.05041124202085436</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>19</v>
@@ -4683,19 +4683,19 @@
         <v>21817</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>13939</v>
+        <v>13282</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>33321</v>
+        <v>33062</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.02195313783364269</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.01402597768073111</v>
+        <v>0.01336533281860546</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.03352909019779739</v>
+        <v>0.03326943333929126</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>47</v>
@@ -4704,19 +4704,19 @@
         <v>48815</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>35817</v>
+        <v>35764</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>63674</v>
+        <v>64681</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.02793905888741478</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.02049951291832716</v>
+        <v>0.02046938646655893</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.03644385714054803</v>
+        <v>0.03701996519726727</v>
       </c>
     </row>
     <row r="5">
@@ -4733,19 +4733,19 @@
         <v>128549</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>109826</v>
+        <v>111203</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>149974</v>
+        <v>150682</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1706220084386951</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.1457711209705165</v>
+        <v>0.14759940339139</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1990597389252755</v>
+        <v>0.1999996563946858</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>187</v>
@@ -4754,19 +4754,19 @@
         <v>211124</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>184260</v>
+        <v>185363</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>238637</v>
+        <v>239104</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.2124455816584388</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.185413248042259</v>
+        <v>0.1865228194385094</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.2401310326764078</v>
+        <v>0.2406007179226891</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>322</v>
@@ -4775,19 +4775,19 @@
         <v>339673</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>309052</v>
+        <v>307524</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>374730</v>
+        <v>378882</v>
       </c>
       <c r="U5" s="6" t="n">
         <v>0.1944107010822685</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1768851377860959</v>
+        <v>0.1760103163590331</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.2144756004698806</v>
+        <v>0.2168518778868734</v>
       </c>
     </row>
     <row r="6">
@@ -4804,19 +4804,19 @@
         <v>414252</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>389795</v>
+        <v>388017</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>440786</v>
+        <v>439043</v>
       </c>
       <c r="G6" s="6" t="n">
         <v>0.5498334452058046</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.5173722296725665</v>
+        <v>0.5150122384271082</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5850522085809754</v>
+        <v>0.5827384979279684</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>495</v>
@@ -4825,19 +4825,19 @@
         <v>548585</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>516012</v>
+        <v>515243</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>584211</v>
+        <v>583152</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.5520184390788725</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.5192417094269173</v>
+        <v>0.5184683287434385</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5878675264718138</v>
+        <v>0.5868015560431218</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>914</v>
@@ -4846,19 +4846,19 @@
         <v>962837</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>920366</v>
+        <v>921067</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>1007573</v>
+        <v>1006349</v>
       </c>
       <c r="U6" s="6" t="n">
         <v>0.5510762406838812</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.5267685311784766</v>
+        <v>0.5271697378629614</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5766812680838997</v>
+        <v>0.5759803416476675</v>
       </c>
     </row>
     <row r="7">
@@ -4875,19 +4875,19 @@
         <v>158996</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>136774</v>
+        <v>138022</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>181593</v>
+        <v>181117</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.2110340383987316</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.1815393057058984</v>
+        <v>0.1831959798576561</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.2410275412662785</v>
+        <v>0.240395253788496</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>160</v>
@@ -4896,19 +4896,19 @@
         <v>177417</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>151646</v>
+        <v>154243</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>202320</v>
+        <v>202744</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.1785278573848026</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.1525954042891909</v>
+        <v>0.1552088267621543</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.2035866271200688</v>
+        <v>0.2040127420270908</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>316</v>
@@ -4917,19 +4917,19 @@
         <v>336413</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>303384</v>
+        <v>302634</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>373094</v>
+        <v>373807</v>
       </c>
       <c r="U7" s="6" t="n">
         <v>0.1925449546206943</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.1736407445554012</v>
+        <v>0.1732116012544244</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.2135388785666495</v>
+        <v>0.2139473220995519</v>
       </c>
     </row>
     <row r="8">
@@ -4946,19 +4946,19 @@
         <v>24618</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>16115</v>
+        <v>15690</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>34906</v>
+        <v>34876</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.03267579178815021</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.02138971740506107</v>
+        <v>0.02082501289539518</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04633050273278498</v>
+        <v>0.04629081091630503</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>30</v>
@@ -4967,19 +4967,19 @@
         <v>34837</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>23764</v>
+        <v>24661</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>49101</v>
+        <v>48459</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.0350549840442434</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.02391280850269418</v>
+        <v>0.02481521920775515</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.04940853289155209</v>
+        <v>0.04876275700213947</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>53</v>
@@ -4988,19 +4988,19 @@
         <v>59455</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>44538</v>
+        <v>45750</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>77922</v>
+        <v>77041</v>
       </c>
       <c r="U8" s="6" t="n">
         <v>0.03402904472574122</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.02549107078448094</v>
+        <v>0.02618502428430971</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.04459845761304556</v>
+        <v>0.04409413510778493</v>
       </c>
     </row>
     <row r="9">
@@ -5092,19 +5092,19 @@
         <v>15994</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>9594</v>
+        <v>8987</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>27008</v>
+        <v>25754</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.007723096473098891</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.004632916201699101</v>
+        <v>0.004339503759672085</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01304164425420017</v>
+        <v>0.01243586871171174</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>18</v>
@@ -5113,19 +5113,19 @@
         <v>21394</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>13029</v>
+        <v>13036</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>33463</v>
+        <v>33635</v>
       </c>
       <c r="N10" s="6" t="n">
         <v>0.01078848230064102</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006569949102649667</v>
+        <v>0.006573478690042568</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.0168742862512549</v>
+        <v>0.01696102379842328</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>33</v>
@@ -5134,19 +5134,19 @@
         <v>37389</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>25695</v>
+        <v>26259</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>52530</v>
+        <v>53557</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.00922257793568987</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.006338033027147459</v>
+        <v>0.00647730764899743</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01295752561882409</v>
+        <v>0.01321094433444159</v>
       </c>
     </row>
     <row r="11">
@@ -5163,19 +5163,19 @@
         <v>216040</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>189818</v>
+        <v>189738</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>246247</v>
+        <v>247036</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.1043201493484163</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.09165802573021314</v>
+        <v>0.09161949220762211</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.1189065615853854</v>
+        <v>0.1192874149172884</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>193</v>
@@ -5184,19 +5184,19 @@
         <v>204242</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>176374</v>
+        <v>177822</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>231243</v>
+        <v>232944</v>
       </c>
       <c r="N11" s="6" t="n">
         <v>0.1029919972145647</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.08893901642531647</v>
+        <v>0.08966941059743642</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.1166077551693768</v>
+        <v>0.117465310345426</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>398</v>
@@ -5205,19 +5205,19 @@
         <v>420282</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>383843</v>
+        <v>381558</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>464884</v>
+        <v>460570</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.1036704629414663</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.09468197980075302</v>
+        <v>0.09411845764716652</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.1146722759719035</v>
+        <v>0.1136081860844144</v>
       </c>
     </row>
     <row r="12">
@@ -5234,19 +5234,19 @@
         <v>1175898</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1131334</v>
+        <v>1128911</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1224477</v>
+        <v>1220453</v>
       </c>
       <c r="G12" s="6" t="n">
         <v>0.5678112293226194</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.546292299527064</v>
+        <v>0.5451220582788262</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5912687364076362</v>
+        <v>0.5893256795567769</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1133</v>
@@ -5255,19 +5255,19 @@
         <v>1174624</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1129840</v>
+        <v>1127682</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1217375</v>
+        <v>1218664</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.5923211301440581</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5697380585836422</v>
+        <v>0.5686496831460639</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.6138789463740637</v>
+        <v>0.6145285355427246</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2243</v>
@@ -5276,19 +5276,19 @@
         <v>2350523</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2282390</v>
+        <v>2289290</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2414858</v>
+        <v>2416675</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5798006309834077</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.5629943154847599</v>
+        <v>0.5646964114696122</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5956701794329127</v>
+        <v>0.596118359008453</v>
       </c>
     </row>
     <row r="13">
@@ -5305,19 +5305,19 @@
         <v>586477</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>544505</v>
+        <v>546425</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>623847</v>
+        <v>629795</v>
       </c>
       <c r="G13" s="6" t="n">
         <v>0.2831948527330568</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.2629277393689191</v>
+        <v>0.2638547479488746</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.30123959117734</v>
+        <v>0.3041116694317947</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>497</v>
@@ -5326,19 +5326,19 @@
         <v>514315</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>477680</v>
+        <v>466608</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>551758</v>
+        <v>551597</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.2593509149214813</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.2408770424870915</v>
+        <v>0.2352939822739418</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.2782320262455774</v>
+        <v>0.2781508415213826</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1044</v>
@@ -5347,19 +5347,19 @@
         <v>1100793</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1037886</v>
+        <v>1047159</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1159541</v>
+        <v>1159120</v>
       </c>
       <c r="U13" s="6" t="n">
         <v>0.2715312173034191</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.256013985014132</v>
+        <v>0.2583013545221993</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.2860225870488098</v>
+        <v>0.2859186741798497</v>
       </c>
     </row>
     <row r="14">
@@ -5376,19 +5376,19 @@
         <v>76522</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>59320</v>
+        <v>60606</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>95314</v>
+        <v>98096</v>
       </c>
       <c r="G14" s="6" t="n">
         <v>0.03695067212280866</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02864397251941482</v>
+        <v>0.02926528060985734</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.04602480617245513</v>
+        <v>0.0473678944646602</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>62</v>
@@ -5397,19 +5397,19 @@
         <v>68511</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>53847</v>
+        <v>52999</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>88599</v>
+        <v>86187</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.03454747541925492</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.0271528703133641</v>
+        <v>0.02672530989666091</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.04467735490508621</v>
+        <v>0.0434607934795699</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>133</v>
@@ -5418,19 +5418,19 @@
         <v>145033</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>123505</v>
+        <v>123560</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>171552</v>
+        <v>174070</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.03577511083601692</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.03046477615218255</v>
+        <v>0.03047828692311198</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.04231656669271136</v>
+        <v>0.04293762788519676</v>
       </c>
     </row>
     <row r="15">
@@ -5525,7 +5525,7 @@
         <v>0</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>6105</v>
+        <v>5972</v>
       </c>
       <c r="G16" s="6" t="n">
         <v>0.00314814554688705</v>
@@ -5534,7 +5534,7 @@
         <v>0</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.01116373175473975</v>
+        <v>0.01091937192839429</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>4</v>
@@ -5543,19 +5543,19 @@
         <v>4084</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>1044</v>
+        <v>1046</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>10282</v>
+        <v>10216</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.007437574409186198</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.00190043677024525</v>
+        <v>0.001903992975738889</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.01872312097677938</v>
+        <v>0.01860322278824397</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>6</v>
@@ -5564,19 +5564,19 @@
         <v>5806</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>2108</v>
+        <v>2075</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>12669</v>
+        <v>11760</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.005297270905289685</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.00192372247072265</v>
+        <v>0.001892960245410904</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01155865711722272</v>
+        <v>0.01072960753031583</v>
       </c>
     </row>
     <row r="17">
@@ -5593,19 +5593,19 @@
         <v>54412</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>40645</v>
+        <v>40620</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>69752</v>
+        <v>69287</v>
       </c>
       <c r="G17" s="6" t="n">
         <v>0.09949501576557265</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.07432064329416424</v>
+        <v>0.07427594171491286</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1275442997380718</v>
+        <v>0.1266937254418579</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>49</v>
@@ -5614,19 +5614,19 @@
         <v>51096</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>38029</v>
+        <v>39020</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>64609</v>
+        <v>66437</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.09304753228634376</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.06925140889990468</v>
+        <v>0.07105710205998286</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1176554982297521</v>
+        <v>0.1209832939331634</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>98</v>
@@ -5635,19 +5635,19 @@
         <v>105509</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>87676</v>
+        <v>84845</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>129143</v>
+        <v>128281</v>
       </c>
       <c r="U17" s="6" t="n">
         <v>0.09626464391703107</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.07999460978828953</v>
+        <v>0.07741138803955608</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1178281276941989</v>
+        <v>0.1170421770576398</v>
       </c>
     </row>
     <row r="18">
@@ -5664,19 +5664,19 @@
         <v>311669</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>287856</v>
+        <v>288783</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>335049</v>
+        <v>336146</v>
       </c>
       <c r="G18" s="6" t="n">
         <v>0.5698975391541423</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5263551484808491</v>
+        <v>0.5280491901595082</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6126490119663228</v>
+        <v>0.6146550981769027</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>326</v>
@@ -5685,19 +5685,19 @@
         <v>341313</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>319849</v>
+        <v>315543</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>364079</v>
+        <v>363912</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.6215417364382254</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5824545650557453</v>
+        <v>0.5746130610360755</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.6629989861334987</v>
+        <v>0.6626935172027538</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>610</v>
@@ -5706,19 +5706,19 @@
         <v>652983</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>619331</v>
+        <v>619527</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>685819</v>
+        <v>687391</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5957727448191875</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5650689060196421</v>
+        <v>0.5652475970071569</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6257319770588864</v>
+        <v>0.6271663873722972</v>
       </c>
     </row>
     <row r="19">
@@ -5735,19 +5735,19 @@
         <v>165850</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>145363</v>
+        <v>143425</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>188191</v>
+        <v>187335</v>
       </c>
       <c r="G19" s="6" t="n">
         <v>0.3032628745762328</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2658006940065846</v>
+        <v>0.2622579833542685</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3441143220372199</v>
+        <v>0.3425492105736185</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>138</v>
@@ -5756,19 +5756,19 @@
         <v>141974</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>121328</v>
+        <v>123236</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>161495</v>
+        <v>166537</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2585394468319195</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.2209411718284745</v>
+        <v>0.2244163059276545</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2940863176773615</v>
+        <v>0.3032684794510256</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>292</v>
@@ -5777,19 +5777,19 @@
         <v>307825</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>277167</v>
+        <v>276613</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>336750</v>
+        <v>339868</v>
       </c>
       <c r="U19" s="6" t="n">
         <v>0.2808551704819229</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2528836526755384</v>
+        <v>0.2523778969317</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.307245906572898</v>
+        <v>0.3100908270850027</v>
       </c>
     </row>
     <row r="20">
@@ -5806,19 +5806,19 @@
         <v>13233</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>7247</v>
+        <v>6867</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>22130</v>
+        <v>22140</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02419642495716522</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01325104630687598</v>
+        <v>0.01255677366585184</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04046571691554395</v>
+        <v>0.04048462719670479</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>9</v>
@@ -5827,19 +5827,19 @@
         <v>10672</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>5044</v>
+        <v>5611</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>19860</v>
+        <v>19172</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01943371003432511</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.009184467520019496</v>
+        <v>0.01021786907927556</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.03616569661324349</v>
+        <v>0.03491337576646838</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>21</v>
@@ -5848,19 +5848,19 @@
         <v>23905</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>15738</v>
+        <v>15666</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>35762</v>
+        <v>37144</v>
       </c>
       <c r="U20" s="6" t="n">
         <v>0.02181016987656878</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01435950948003813</v>
+        <v>0.01429300030381631</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.03262853547789451</v>
+        <v>0.03389002113385804</v>
       </c>
     </row>
     <row r="21">
@@ -5952,19 +5952,19 @@
         <v>44714</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>32606</v>
+        <v>33455</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>59357</v>
+        <v>59046</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01326340993381602</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.00967170925434245</v>
+        <v>0.009923608794425704</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01760706744655299</v>
+        <v>0.01751454957408743</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>41</v>
@@ -5973,19 +5973,19 @@
         <v>47295</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>33469</v>
+        <v>34716</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>63290</v>
+        <v>63923</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.0134132908847676</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009491998497357003</v>
+        <v>0.009845815680856896</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01794961705820377</v>
+        <v>0.01812898130249544</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>86</v>
@@ -5994,19 +5994,19 @@
         <v>92009</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>72597</v>
+        <v>74092</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>112160</v>
+        <v>112430</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01334003209674592</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.0105254559987224</v>
+        <v>0.01074230602332697</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01626150884359203</v>
+        <v>0.01630070990073689</v>
       </c>
     </row>
     <row r="23">
@@ -6023,19 +6023,19 @@
         <v>399001</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>360547</v>
+        <v>358756</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>434011</v>
+        <v>434993</v>
       </c>
       <c r="G23" s="6" t="n">
         <v>0.1183547467370696</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.10694805191064</v>
+        <v>0.1064168956706742</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.1287395440227536</v>
+        <v>0.1290309905394515</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>429</v>
@@ -6044,19 +6044,19 @@
         <v>466463</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>423244</v>
+        <v>427354</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>511491</v>
+        <v>507385</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.1322919623131041</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.1200350243169133</v>
+        <v>0.1212005688811603</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.1450624115558462</v>
+        <v>0.1438978060965511</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>818</v>
@@ -6065,19 +6065,19 @@
         <v>865464</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>812552</v>
+        <v>810539</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>926822</v>
+        <v>921701</v>
       </c>
       <c r="U23" s="6" t="n">
         <v>0.1254797322397368</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.1178082339331278</v>
+        <v>0.1175164009430831</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.1343757880756894</v>
+        <v>0.1336333096548111</v>
       </c>
     </row>
     <row r="24">
@@ -6094,19 +6094,19 @@
         <v>1901819</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1839588</v>
+        <v>1842623</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1957683</v>
+        <v>1954143</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.564131944661091</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5456724218864248</v>
+        <v>0.5465726772725022</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5807027543225277</v>
+        <v>0.5796527974471604</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>1954</v>
@@ -6115,19 +6115,19 @@
         <v>2064523</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2004156</v>
+        <v>2003359</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2122543</v>
+        <v>2125183</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5855129194051155</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5683922590128833</v>
+        <v>0.5681664153064828</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.6019676552884001</v>
+        <v>0.6027165536750704</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>3767</v>
@@ -6136,19 +6136,19 @@
         <v>3966342</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3874797</v>
+        <v>3880235</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4044972</v>
+        <v>4047496</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5750623298770605</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5617896335943421</v>
+        <v>0.5625780459649651</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5864625145341431</v>
+        <v>0.5868284934486309</v>
       </c>
     </row>
     <row r="25">
@@ -6165,19 +6165,19 @@
         <v>911323</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>859447</v>
+        <v>858149</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>971658</v>
+        <v>967629</v>
       </c>
       <c r="G25" s="6" t="n">
         <v>0.2703236026785583</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.2549356211028064</v>
+        <v>0.2545507783466821</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.2882204006428459</v>
+        <v>0.2870254931528334</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>795</v>
@@ -6186,19 +6186,19 @@
         <v>833707</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>782178</v>
+        <v>784730</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>883059</v>
+        <v>889206</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.2364451318088708</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.2218309917893563</v>
+        <v>0.2225548682998444</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.2504415084503304</v>
+        <v>0.2521848329861855</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>1652</v>
@@ -6207,19 +6207,19 @@
         <v>1745031</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>1676999</v>
+        <v>1677212</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>1823887</v>
+        <v>1823743</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.2530042455600444</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.2431406862273779</v>
+        <v>0.2431715601624937</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.2644372285540247</v>
+        <v>0.2644163799778425</v>
       </c>
     </row>
     <row r="26">
@@ -6236,19 +6236,19 @@
         <v>114373</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>93286</v>
+        <v>92744</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>137026</v>
+        <v>136744</v>
       </c>
       <c r="G26" s="6" t="n">
         <v>0.03392629598946512</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02767109800906319</v>
+        <v>0.0275103936802908</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.04064559807393499</v>
+        <v>0.04056217862712332</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>101</v>
@@ -6257,19 +6257,19 @@
         <v>114019</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>94202</v>
+        <v>94877</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>138950</v>
+        <v>137586</v>
       </c>
       <c r="N26" s="6" t="n">
         <v>0.03233669558814191</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.02671623657779627</v>
+        <v>0.02690784825179871</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.03940719251223527</v>
+        <v>0.03902024720041451</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>207</v>
@@ -6278,19 +6278,19 @@
         <v>228393</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>199336</v>
+        <v>199971</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>260309</v>
+        <v>259748</v>
       </c>
       <c r="U26" s="6" t="n">
         <v>0.03311366022641234</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02890087538783527</v>
+        <v>0.02899291958402743</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.03774102644769967</v>
+        <v>0.03765968525491926</v>
       </c>
     </row>
     <row r="27">
@@ -6621,19 +6621,19 @@
         <v>15091</v>
       </c>
       <c r="E4" s="5" t="n">
-        <v>8869</v>
+        <v>9095</v>
       </c>
       <c r="F4" s="5" t="n">
-        <v>23522</v>
+        <v>24380</v>
       </c>
       <c r="G4" s="6" t="n">
         <v>0.02613731417660129</v>
       </c>
       <c r="H4" s="6" t="n">
-        <v>0.01536055652125702</v>
+        <v>0.01575164047599591</v>
       </c>
       <c r="I4" s="6" t="n">
-        <v>0.04073881462702312</v>
+        <v>0.04222458961921954</v>
       </c>
       <c r="J4" s="5" t="n">
         <v>22</v>
@@ -6642,19 +6642,19 @@
         <v>11106</v>
       </c>
       <c r="L4" s="5" t="n">
-        <v>6889</v>
+        <v>7130</v>
       </c>
       <c r="M4" s="5" t="n">
-        <v>16308</v>
+        <v>16786</v>
       </c>
       <c r="N4" s="6" t="n">
         <v>0.01352345361904368</v>
       </c>
       <c r="O4" s="6" t="n">
-        <v>0.008388343838947373</v>
+        <v>0.0086816119948785</v>
       </c>
       <c r="P4" s="6" t="n">
-        <v>0.01985792546295233</v>
+        <v>0.02044009919766822</v>
       </c>
       <c r="Q4" s="5" t="n">
         <v>41</v>
@@ -6663,19 +6663,19 @@
         <v>26197</v>
       </c>
       <c r="S4" s="5" t="n">
-        <v>19013</v>
+        <v>18761</v>
       </c>
       <c r="T4" s="5" t="n">
-        <v>36415</v>
+        <v>37526</v>
       </c>
       <c r="U4" s="6" t="n">
         <v>0.01873080957260943</v>
       </c>
       <c r="V4" s="6" t="n">
-        <v>0.01359446082367608</v>
+        <v>0.01341440637687606</v>
       </c>
       <c r="W4" s="6" t="n">
-        <v>0.02603647844439928</v>
+        <v>0.02683089327743919</v>
       </c>
     </row>
     <row r="5">
@@ -6692,19 +6692,19 @@
         <v>65298</v>
       </c>
       <c r="E5" s="5" t="n">
-        <v>52683</v>
+        <v>52164</v>
       </c>
       <c r="F5" s="5" t="n">
-        <v>81607</v>
+        <v>80749</v>
       </c>
       <c r="G5" s="6" t="n">
         <v>0.1130936972663546</v>
       </c>
       <c r="H5" s="6" t="n">
-        <v>0.09124478038955465</v>
+        <v>0.09034571437361642</v>
       </c>
       <c r="I5" s="6" t="n">
-        <v>0.1413399721384696</v>
+        <v>0.1398547897665681</v>
       </c>
       <c r="J5" s="5" t="n">
         <v>224</v>
@@ -6713,19 +6713,19 @@
         <v>112461</v>
       </c>
       <c r="L5" s="5" t="n">
-        <v>98420</v>
+        <v>98405</v>
       </c>
       <c r="M5" s="5" t="n">
-        <v>126843</v>
+        <v>127508</v>
       </c>
       <c r="N5" s="6" t="n">
         <v>0.1369435536471481</v>
       </c>
       <c r="O5" s="6" t="n">
-        <v>0.1198458308768766</v>
+        <v>0.1198283812876812</v>
       </c>
       <c r="P5" s="6" t="n">
-        <v>0.1544565691513192</v>
+        <v>0.1552672252998456</v>
       </c>
       <c r="Q5" s="5" t="n">
         <v>313</v>
@@ -6734,19 +6734,19 @@
         <v>177759</v>
       </c>
       <c r="S5" s="5" t="n">
-        <v>156864</v>
+        <v>158215</v>
       </c>
       <c r="T5" s="5" t="n">
-        <v>198753</v>
+        <v>198515</v>
       </c>
       <c r="U5" s="6" t="n">
-        <v>0.127097663005698</v>
+        <v>0.1270976630056979</v>
       </c>
       <c r="V5" s="6" t="n">
-        <v>0.1121580690357875</v>
+        <v>0.1131240225599798</v>
       </c>
       <c r="W5" s="6" t="n">
-        <v>0.1421086826143431</v>
+        <v>0.1419383196805956</v>
       </c>
     </row>
     <row r="6">
@@ -6763,19 +6763,19 @@
         <v>302432</v>
       </c>
       <c r="E6" s="5" t="n">
-        <v>277005</v>
+        <v>279742</v>
       </c>
       <c r="F6" s="5" t="n">
-        <v>324640</v>
+        <v>325795</v>
       </c>
       <c r="G6" s="6" t="n">
-        <v>0.5237990609121052</v>
+        <v>0.523799060912105</v>
       </c>
       <c r="H6" s="6" t="n">
-        <v>0.4797611048422925</v>
+        <v>0.4845010580059804</v>
       </c>
       <c r="I6" s="6" t="n">
-        <v>0.5622636110043909</v>
+        <v>0.5642635729030441</v>
       </c>
       <c r="J6" s="5" t="n">
         <v>718</v>
@@ -6784,19 +6784,19 @@
         <v>409519</v>
       </c>
       <c r="L6" s="5" t="n">
-        <v>387681</v>
+        <v>386833</v>
       </c>
       <c r="M6" s="5" t="n">
-        <v>431754</v>
+        <v>431885</v>
       </c>
       <c r="N6" s="6" t="n">
         <v>0.4986718457775631</v>
       </c>
       <c r="O6" s="6" t="n">
-        <v>0.4720796694487526</v>
+        <v>0.4710475198192295</v>
       </c>
       <c r="P6" s="6" t="n">
-        <v>0.5257482078286846</v>
+        <v>0.52590681524196</v>
       </c>
       <c r="Q6" s="5" t="n">
         <v>1087</v>
@@ -6805,19 +6805,19 @@
         <v>711950</v>
       </c>
       <c r="S6" s="5" t="n">
-        <v>679550</v>
+        <v>679020</v>
       </c>
       <c r="T6" s="5" t="n">
-        <v>744324</v>
+        <v>742508</v>
       </c>
       <c r="U6" s="6" t="n">
-        <v>0.5090450659927642</v>
+        <v>0.5090450659927641</v>
       </c>
       <c r="V6" s="6" t="n">
-        <v>0.4858786334238035</v>
+        <v>0.4854999833362503</v>
       </c>
       <c r="W6" s="6" t="n">
-        <v>0.5321918371788041</v>
+        <v>0.5308937423062445</v>
       </c>
     </row>
     <row r="7">
@@ -6834,19 +6834,19 @@
         <v>180276</v>
       </c>
       <c r="E7" s="5" t="n">
-        <v>159358</v>
+        <v>158999</v>
       </c>
       <c r="F7" s="5" t="n">
-        <v>204360</v>
+        <v>202714</v>
       </c>
       <c r="G7" s="6" t="n">
         <v>0.3122311745139689</v>
       </c>
       <c r="H7" s="6" t="n">
-        <v>0.2760021559253238</v>
+        <v>0.2753791688516347</v>
       </c>
       <c r="I7" s="6" t="n">
-        <v>0.3539428774904911</v>
+        <v>0.3510926420864844</v>
       </c>
       <c r="J7" s="5" t="n">
         <v>433</v>
@@ -6855,19 +6855,19 @@
         <v>269923</v>
       </c>
       <c r="L7" s="5" t="n">
-        <v>248579</v>
+        <v>246982</v>
       </c>
       <c r="M7" s="5" t="n">
-        <v>291866</v>
+        <v>291379</v>
       </c>
       <c r="N7" s="6" t="n">
         <v>0.3286855673404127</v>
       </c>
       <c r="O7" s="6" t="n">
-        <v>0.3026948148463046</v>
+        <v>0.3007501063015911</v>
       </c>
       <c r="P7" s="6" t="n">
-        <v>0.3554062217451799</v>
+        <v>0.3548127951818541</v>
       </c>
       <c r="Q7" s="5" t="n">
         <v>631</v>
@@ -6876,19 +6876,19 @@
         <v>450199</v>
       </c>
       <c r="S7" s="5" t="n">
-        <v>418570</v>
+        <v>423150</v>
       </c>
       <c r="T7" s="5" t="n">
-        <v>480706</v>
+        <v>483433</v>
       </c>
       <c r="U7" s="6" t="n">
-        <v>0.3218927317881159</v>
+        <v>0.3218927317881158</v>
       </c>
       <c r="V7" s="6" t="n">
-        <v>0.2992778980250318</v>
+        <v>0.3025526116931733</v>
       </c>
       <c r="W7" s="6" t="n">
-        <v>0.3437053091755773</v>
+        <v>0.3456550469293006</v>
       </c>
     </row>
     <row r="8">
@@ -6905,19 +6905,19 @@
         <v>14284</v>
       </c>
       <c r="E8" s="5" t="n">
-        <v>8492</v>
+        <v>8032</v>
       </c>
       <c r="F8" s="5" t="n">
-        <v>24133</v>
+        <v>24058</v>
       </c>
       <c r="G8" s="6" t="n">
         <v>0.02473875313097023</v>
       </c>
       <c r="H8" s="6" t="n">
-        <v>0.01470840497141685</v>
+        <v>0.01391135875056698</v>
       </c>
       <c r="I8" s="6" t="n">
-        <v>0.04179651545866483</v>
+        <v>0.04166784996505246</v>
       </c>
       <c r="J8" s="5" t="n">
         <v>28</v>
@@ -6926,19 +6926,19 @@
         <v>18211</v>
       </c>
       <c r="L8" s="5" t="n">
-        <v>12539</v>
+        <v>12366</v>
       </c>
       <c r="M8" s="5" t="n">
-        <v>26468</v>
+        <v>26877</v>
       </c>
       <c r="N8" s="6" t="n">
         <v>0.02217557961583255</v>
       </c>
       <c r="O8" s="6" t="n">
-        <v>0.01526839569177636</v>
+        <v>0.01505805157609096</v>
       </c>
       <c r="P8" s="6" t="n">
-        <v>0.032230332664519</v>
+        <v>0.03272862191099861</v>
       </c>
       <c r="Q8" s="5" t="n">
         <v>42</v>
@@ -6947,19 +6947,19 @@
         <v>32495</v>
       </c>
       <c r="S8" s="5" t="n">
-        <v>23450</v>
+        <v>22536</v>
       </c>
       <c r="T8" s="5" t="n">
-        <v>44264</v>
+        <v>44189</v>
       </c>
       <c r="U8" s="6" t="n">
-        <v>0.02323372964081259</v>
+        <v>0.02323372964081258</v>
       </c>
       <c r="V8" s="6" t="n">
-        <v>0.01676710122162457</v>
+        <v>0.01611353059449884</v>
       </c>
       <c r="W8" s="6" t="n">
-        <v>0.03164906425445151</v>
+        <v>0.03159534687206046</v>
       </c>
     </row>
     <row r="9">
@@ -7051,19 +7051,19 @@
         <v>20478</v>
       </c>
       <c r="E10" s="5" t="n">
-        <v>12691</v>
+        <v>11708</v>
       </c>
       <c r="F10" s="5" t="n">
-        <v>34429</v>
+        <v>33032</v>
       </c>
       <c r="G10" s="6" t="n">
         <v>0.009183159757703353</v>
       </c>
       <c r="H10" s="6" t="n">
-        <v>0.005691324104685937</v>
+        <v>0.005250404834847064</v>
       </c>
       <c r="I10" s="6" t="n">
-        <v>0.01543941431102368</v>
+        <v>0.01481303666832346</v>
       </c>
       <c r="J10" s="5" t="n">
         <v>30</v>
@@ -7072,19 +7072,19 @@
         <v>20867</v>
       </c>
       <c r="L10" s="5" t="n">
-        <v>14105</v>
+        <v>13556</v>
       </c>
       <c r="M10" s="5" t="n">
-        <v>30525</v>
+        <v>30736</v>
       </c>
       <c r="N10" s="6" t="n">
-        <v>0.009621214601643809</v>
+        <v>0.009621214601643807</v>
       </c>
       <c r="O10" s="6" t="n">
-        <v>0.006503527040424102</v>
+        <v>0.006250584238786729</v>
       </c>
       <c r="P10" s="6" t="n">
-        <v>0.01407462642672574</v>
+        <v>0.01417193989474751</v>
       </c>
       <c r="Q10" s="5" t="n">
         <v>49</v>
@@ -7093,19 +7093,19 @@
         <v>41345</v>
       </c>
       <c r="S10" s="5" t="n">
-        <v>30872</v>
+        <v>30608</v>
       </c>
       <c r="T10" s="5" t="n">
-        <v>57997</v>
+        <v>56257</v>
       </c>
       <c r="U10" s="6" t="n">
         <v>0.009399143227633903</v>
       </c>
       <c r="V10" s="6" t="n">
-        <v>0.007018297939155128</v>
+        <v>0.00695839385346298</v>
       </c>
       <c r="W10" s="6" t="n">
-        <v>0.01318467657278123</v>
+        <v>0.01278933204618609</v>
       </c>
     </row>
     <row r="11">
@@ -7122,19 +7122,19 @@
         <v>90654</v>
       </c>
       <c r="E11" s="5" t="n">
-        <v>75302</v>
+        <v>74664</v>
       </c>
       <c r="F11" s="5" t="n">
-        <v>113210</v>
+        <v>113022</v>
       </c>
       <c r="G11" s="6" t="n">
         <v>0.0406528660814922</v>
       </c>
       <c r="H11" s="6" t="n">
-        <v>0.03376817973365183</v>
+        <v>0.03348223143220436</v>
       </c>
       <c r="I11" s="6" t="n">
-        <v>0.05076776126909269</v>
+        <v>0.05068358654257712</v>
       </c>
       <c r="J11" s="5" t="n">
         <v>178</v>
@@ -7143,19 +7143,19 @@
         <v>131901</v>
       </c>
       <c r="L11" s="5" t="n">
-        <v>111924</v>
+        <v>112759</v>
       </c>
       <c r="M11" s="5" t="n">
-        <v>155587</v>
+        <v>156773</v>
       </c>
       <c r="N11" s="6" t="n">
-        <v>0.06081660639020385</v>
+        <v>0.06081660639020384</v>
       </c>
       <c r="O11" s="6" t="n">
-        <v>0.05160607522734675</v>
+        <v>0.05199090422734682</v>
       </c>
       <c r="P11" s="6" t="n">
-        <v>0.07173794440029824</v>
+        <v>0.07228467064376225</v>
       </c>
       <c r="Q11" s="5" t="n">
         <v>276</v>
@@ -7164,19 +7164,19 @@
         <v>222555</v>
       </c>
       <c r="S11" s="5" t="n">
-        <v>193932</v>
+        <v>195191</v>
       </c>
       <c r="T11" s="5" t="n">
-        <v>252505</v>
+        <v>253335</v>
       </c>
       <c r="U11" s="6" t="n">
         <v>0.05059462259645038</v>
       </c>
       <c r="V11" s="6" t="n">
-        <v>0.04408757273086625</v>
+        <v>0.04437398014450176</v>
       </c>
       <c r="W11" s="6" t="n">
-        <v>0.05740351172584546</v>
+        <v>0.05759216451607212</v>
       </c>
     </row>
     <row r="12">
@@ -7193,19 +7193,19 @@
         <v>1201223</v>
       </c>
       <c r="E12" s="5" t="n">
-        <v>1149743</v>
+        <v>1149258</v>
       </c>
       <c r="F12" s="5" t="n">
-        <v>1257685</v>
+        <v>1256532</v>
       </c>
       <c r="G12" s="6" t="n">
-        <v>0.5386758680546313</v>
+        <v>0.5386758680546314</v>
       </c>
       <c r="H12" s="6" t="n">
-        <v>0.5155900396700039</v>
+        <v>0.515372492279153</v>
       </c>
       <c r="I12" s="6" t="n">
-        <v>0.5639952986400095</v>
+        <v>0.5634782417108971</v>
       </c>
       <c r="J12" s="5" t="n">
         <v>1734</v>
@@ -7214,19 +7214,19 @@
         <v>1239059</v>
       </c>
       <c r="L12" s="5" t="n">
-        <v>1192217</v>
+        <v>1191043</v>
       </c>
       <c r="M12" s="5" t="n">
-        <v>1279190</v>
+        <v>1281580</v>
       </c>
       <c r="N12" s="6" t="n">
         <v>0.571304552979589</v>
       </c>
       <c r="O12" s="6" t="n">
-        <v>0.5497064784850418</v>
+        <v>0.5491652049201401</v>
       </c>
       <c r="P12" s="6" t="n">
-        <v>0.589808286421047</v>
+        <v>0.5909102155005653</v>
       </c>
       <c r="Q12" s="5" t="n">
         <v>2840</v>
@@ -7235,19 +7235,19 @@
         <v>2440283</v>
       </c>
       <c r="S12" s="5" t="n">
-        <v>2372239</v>
+        <v>2369303</v>
       </c>
       <c r="T12" s="5" t="n">
-        <v>2507039</v>
+        <v>2509075</v>
       </c>
       <c r="U12" s="6" t="n">
         <v>0.5547634805690153</v>
       </c>
       <c r="V12" s="6" t="n">
-        <v>0.539294693380574</v>
+        <v>0.5386272214992778</v>
       </c>
       <c r="W12" s="6" t="n">
-        <v>0.5699394899517176</v>
+        <v>0.5704022670006023</v>
       </c>
     </row>
     <row r="13">
@@ -7264,19 +7264,19 @@
         <v>851828</v>
       </c>
       <c r="E13" s="5" t="n">
-        <v>792696</v>
+        <v>795845</v>
       </c>
       <c r="F13" s="5" t="n">
-        <v>904061</v>
+        <v>902455</v>
       </c>
       <c r="G13" s="6" t="n">
-        <v>0.3819932091814244</v>
+        <v>0.3819932091814245</v>
       </c>
       <c r="H13" s="6" t="n">
-        <v>0.3554761277159733</v>
+        <v>0.3568880676543553</v>
       </c>
       <c r="I13" s="6" t="n">
-        <v>0.4054165017813192</v>
+        <v>0.4046964574736056</v>
       </c>
       <c r="J13" s="5" t="n">
         <v>928</v>
@@ -7285,19 +7285,19 @@
         <v>729454</v>
       </c>
       <c r="L13" s="5" t="n">
-        <v>689141</v>
+        <v>687122</v>
       </c>
       <c r="M13" s="5" t="n">
-        <v>774579</v>
+        <v>772058</v>
       </c>
       <c r="N13" s="6" t="n">
         <v>0.3363362150491311</v>
       </c>
       <c r="O13" s="6" t="n">
-        <v>0.3177487561760772</v>
+        <v>0.3168175834540047</v>
       </c>
       <c r="P13" s="6" t="n">
-        <v>0.357142449906989</v>
+        <v>0.3559799545404002</v>
       </c>
       <c r="Q13" s="5" t="n">
         <v>1639</v>
@@ -7306,19 +7306,19 @@
         <v>1581282</v>
       </c>
       <c r="S13" s="5" t="n">
-        <v>1516800</v>
+        <v>1514088</v>
       </c>
       <c r="T13" s="5" t="n">
-        <v>1649681</v>
+        <v>1650312</v>
       </c>
       <c r="U13" s="6" t="n">
-        <v>0.3594819730754911</v>
+        <v>0.359481973075491</v>
       </c>
       <c r="V13" s="6" t="n">
-        <v>0.344822799750321</v>
+        <v>0.344206228085747</v>
       </c>
       <c r="W13" s="6" t="n">
-        <v>0.3750314800315717</v>
+        <v>0.3751747916918603</v>
       </c>
     </row>
     <row r="14">
@@ -7335,19 +7335,19 @@
         <v>65772</v>
       </c>
       <c r="E14" s="5" t="n">
-        <v>49118</v>
+        <v>49385</v>
       </c>
       <c r="F14" s="5" t="n">
-        <v>84836</v>
+        <v>85944</v>
       </c>
       <c r="G14" s="6" t="n">
-        <v>0.02949489692474868</v>
+        <v>0.02949489692474869</v>
       </c>
       <c r="H14" s="6" t="n">
-        <v>0.02202626111964079</v>
+        <v>0.02214606937483874</v>
       </c>
       <c r="I14" s="6" t="n">
-        <v>0.03804366219265161</v>
+        <v>0.03854065347498669</v>
       </c>
       <c r="J14" s="5" t="n">
         <v>47</v>
@@ -7356,19 +7356,19 @@
         <v>47544</v>
       </c>
       <c r="L14" s="5" t="n">
-        <v>34113</v>
+        <v>34960</v>
       </c>
       <c r="M14" s="5" t="n">
-        <v>64837</v>
+        <v>65048</v>
       </c>
       <c r="N14" s="6" t="n">
         <v>0.02192141097943213</v>
       </c>
       <c r="O14" s="6" t="n">
-        <v>0.01572898713906571</v>
+        <v>0.01611920612780941</v>
       </c>
       <c r="P14" s="6" t="n">
-        <v>0.02989517017308014</v>
+        <v>0.02999236370458064</v>
       </c>
       <c r="Q14" s="5" t="n">
         <v>104</v>
@@ -7377,19 +7377,19 @@
         <v>113316</v>
       </c>
       <c r="S14" s="5" t="n">
-        <v>90423</v>
+        <v>91902</v>
       </c>
       <c r="T14" s="5" t="n">
-        <v>140620</v>
+        <v>140842</v>
       </c>
       <c r="U14" s="6" t="n">
         <v>0.02576078053140947</v>
       </c>
       <c r="V14" s="6" t="n">
-        <v>0.0205563436430895</v>
+        <v>0.02089265523631859</v>
       </c>
       <c r="W14" s="6" t="n">
-        <v>0.03196806077762598</v>
+        <v>0.03201845907940359</v>
       </c>
     </row>
     <row r="15">
@@ -7481,19 +7481,19 @@
         <v>2134</v>
       </c>
       <c r="E16" s="5" t="n">
-        <v>453</v>
+        <v>506</v>
       </c>
       <c r="F16" s="5" t="n">
-        <v>5168</v>
+        <v>5548</v>
       </c>
       <c r="G16" s="6" t="n">
-        <v>0.002998537052809812</v>
+        <v>0.002998537052809811</v>
       </c>
       <c r="H16" s="6" t="n">
-        <v>0.0006369738814813028</v>
+        <v>0.0007113030098644353</v>
       </c>
       <c r="I16" s="6" t="n">
-        <v>0.007262812566555508</v>
+        <v>0.007796764020861221</v>
       </c>
       <c r="J16" s="5" t="n">
         <v>22</v>
@@ -7502,19 +7502,19 @@
         <v>15584</v>
       </c>
       <c r="L16" s="5" t="n">
-        <v>9602</v>
+        <v>9492</v>
       </c>
       <c r="M16" s="5" t="n">
-        <v>23676</v>
+        <v>23541</v>
       </c>
       <c r="N16" s="6" t="n">
         <v>0.0212065591276965</v>
       </c>
       <c r="O16" s="6" t="n">
-        <v>0.01306597543331186</v>
+        <v>0.01291712169100236</v>
       </c>
       <c r="P16" s="6" t="n">
-        <v>0.03221740873662948</v>
+        <v>0.032034284585242</v>
       </c>
       <c r="Q16" s="5" t="n">
         <v>26</v>
@@ -7523,19 +7523,19 @@
         <v>17718</v>
       </c>
       <c r="S16" s="5" t="n">
-        <v>11773</v>
+        <v>11965</v>
       </c>
       <c r="T16" s="5" t="n">
-        <v>25980</v>
+        <v>26807</v>
       </c>
       <c r="U16" s="6" t="n">
         <v>0.01224913635343989</v>
       </c>
       <c r="V16" s="6" t="n">
-        <v>0.008138967582853273</v>
+        <v>0.008271636273214143</v>
       </c>
       <c r="W16" s="6" t="n">
-        <v>0.01796078782778393</v>
+        <v>0.01853304968209618</v>
       </c>
     </row>
     <row r="17">
@@ -7552,19 +7552,19 @@
         <v>62045</v>
       </c>
       <c r="E17" s="5" t="n">
-        <v>48771</v>
+        <v>48488</v>
       </c>
       <c r="F17" s="5" t="n">
-        <v>79336</v>
+        <v>79006</v>
       </c>
       <c r="G17" s="6" t="n">
-        <v>0.08719174750994249</v>
+        <v>0.08719174750994248</v>
       </c>
       <c r="H17" s="6" t="n">
-        <v>0.0685376847556191</v>
+        <v>0.0681400344180797</v>
       </c>
       <c r="I17" s="6" t="n">
-        <v>0.1114913898490509</v>
+        <v>0.1110278275885525</v>
       </c>
       <c r="J17" s="5" t="n">
         <v>121</v>
@@ -7573,19 +7573,19 @@
         <v>87527</v>
       </c>
       <c r="L17" s="5" t="n">
-        <v>72445</v>
+        <v>73121</v>
       </c>
       <c r="M17" s="5" t="n">
-        <v>103028</v>
+        <v>104975</v>
       </c>
       <c r="N17" s="6" t="n">
         <v>0.1191039338041353</v>
       </c>
       <c r="O17" s="6" t="n">
-        <v>0.09858136721365458</v>
+        <v>0.09950073061118414</v>
       </c>
       <c r="P17" s="6" t="n">
-        <v>0.1401974384616592</v>
+        <v>0.1428475501716299</v>
       </c>
       <c r="Q17" s="5" t="n">
         <v>192</v>
@@ -7594,19 +7594,19 @@
         <v>149571</v>
       </c>
       <c r="S17" s="5" t="n">
-        <v>130210</v>
+        <v>129614</v>
       </c>
       <c r="T17" s="5" t="n">
-        <v>171950</v>
+        <v>170640</v>
       </c>
       <c r="U17" s="6" t="n">
-        <v>0.1034047577424927</v>
+        <v>0.1034047577424926</v>
       </c>
       <c r="V17" s="6" t="n">
-        <v>0.09001967082696963</v>
+        <v>0.08960730139915786</v>
       </c>
       <c r="W17" s="6" t="n">
-        <v>0.1188758514282598</v>
+        <v>0.1179701936446845</v>
       </c>
     </row>
     <row r="18">
@@ -7623,19 +7623,19 @@
         <v>409462</v>
       </c>
       <c r="E18" s="5" t="n">
-        <v>378775</v>
+        <v>380444</v>
       </c>
       <c r="F18" s="5" t="n">
-        <v>437784</v>
+        <v>436543</v>
       </c>
       <c r="G18" s="6" t="n">
-        <v>0.5754209754916447</v>
+        <v>0.5754209754916446</v>
       </c>
       <c r="H18" s="6" t="n">
-        <v>0.5322955135982551</v>
+        <v>0.5346412190427476</v>
       </c>
       <c r="I18" s="6" t="n">
-        <v>0.6152213444549207</v>
+        <v>0.6134780142996373</v>
       </c>
       <c r="J18" s="5" t="n">
         <v>591</v>
@@ -7644,19 +7644,19 @@
         <v>425979</v>
       </c>
       <c r="L18" s="5" t="n">
-        <v>403235</v>
+        <v>401283</v>
       </c>
       <c r="M18" s="5" t="n">
-        <v>449408</v>
+        <v>448668</v>
       </c>
       <c r="N18" s="6" t="n">
         <v>0.5796605381022366</v>
       </c>
       <c r="O18" s="6" t="n">
-        <v>0.5487104102087876</v>
+        <v>0.5460545502332429</v>
       </c>
       <c r="P18" s="6" t="n">
-        <v>0.611541170641793</v>
+        <v>0.6105351121648568</v>
       </c>
       <c r="Q18" s="5" t="n">
         <v>985</v>
@@ -7665,19 +7665,19 @@
         <v>835441</v>
       </c>
       <c r="S18" s="5" t="n">
-        <v>797924</v>
+        <v>797714</v>
       </c>
       <c r="T18" s="5" t="n">
-        <v>871073</v>
+        <v>871432</v>
       </c>
       <c r="U18" s="6" t="n">
         <v>0.5775748884624892</v>
       </c>
       <c r="V18" s="6" t="n">
-        <v>0.5516373112518388</v>
+        <v>0.5514921301297843</v>
       </c>
       <c r="W18" s="6" t="n">
-        <v>0.6022086660585484</v>
+        <v>0.6024564381082327</v>
       </c>
     </row>
     <row r="19">
@@ -7694,19 +7694,19 @@
         <v>218617</v>
       </c>
       <c r="E19" s="5" t="n">
-        <v>191468</v>
+        <v>190992</v>
       </c>
       <c r="F19" s="5" t="n">
-        <v>249670</v>
+        <v>244648</v>
       </c>
       <c r="G19" s="6" t="n">
-        <v>0.3072250063788188</v>
+        <v>0.3072250063788187</v>
       </c>
       <c r="H19" s="6" t="n">
-        <v>0.2690724158219571</v>
+        <v>0.2684025461341198</v>
       </c>
       <c r="I19" s="6" t="n">
-        <v>0.3508638249696109</v>
+        <v>0.3438056986735142</v>
       </c>
       <c r="J19" s="5" t="n">
         <v>258</v>
@@ -7715,19 +7715,19 @@
         <v>196913</v>
       </c>
       <c r="L19" s="5" t="n">
-        <v>176618</v>
+        <v>175345</v>
       </c>
       <c r="M19" s="5" t="n">
-        <v>219846</v>
+        <v>217414</v>
       </c>
       <c r="N19" s="6" t="n">
         <v>0.2679530960936917</v>
       </c>
       <c r="O19" s="6" t="n">
-        <v>0.240337088217472</v>
+        <v>0.2386045665366207</v>
       </c>
       <c r="P19" s="6" t="n">
-        <v>0.2991605513482928</v>
+        <v>0.2958505304588709</v>
       </c>
       <c r="Q19" s="5" t="n">
         <v>455</v>
@@ -7736,19 +7736,19 @@
         <v>415530</v>
       </c>
       <c r="S19" s="5" t="n">
-        <v>380396</v>
+        <v>383797</v>
       </c>
       <c r="T19" s="5" t="n">
-        <v>449753</v>
+        <v>450739</v>
       </c>
       <c r="U19" s="6" t="n">
-        <v>0.2872728828409708</v>
+        <v>0.2872728828409707</v>
       </c>
       <c r="V19" s="6" t="n">
-        <v>0.2629832257942081</v>
+        <v>0.2653346028958227</v>
       </c>
       <c r="W19" s="6" t="n">
-        <v>0.3109330363016827</v>
+        <v>0.3116146778531331</v>
       </c>
     </row>
     <row r="20">
@@ -7765,19 +7765,19 @@
         <v>19329</v>
       </c>
       <c r="E20" s="5" t="n">
-        <v>10938</v>
+        <v>11457</v>
       </c>
       <c r="F20" s="5" t="n">
-        <v>31218</v>
+        <v>32218</v>
       </c>
       <c r="G20" s="6" t="n">
         <v>0.02716373356678419</v>
       </c>
       <c r="H20" s="6" t="n">
-        <v>0.01537196510701306</v>
+        <v>0.01610095768621881</v>
       </c>
       <c r="I20" s="6" t="n">
-        <v>0.04387157401938879</v>
+        <v>0.04527635476998545</v>
       </c>
       <c r="J20" s="5" t="n">
         <v>12</v>
@@ -7786,19 +7786,19 @@
         <v>8874</v>
       </c>
       <c r="L20" s="5" t="n">
-        <v>4556</v>
+        <v>4838</v>
       </c>
       <c r="M20" s="5" t="n">
-        <v>14487</v>
+        <v>15072</v>
       </c>
       <c r="N20" s="6" t="n">
         <v>0.01207587287223977</v>
       </c>
       <c r="O20" s="6" t="n">
-        <v>0.006199255885078671</v>
+        <v>0.006583052804619139</v>
       </c>
       <c r="P20" s="6" t="n">
-        <v>0.01971381944074836</v>
+        <v>0.02050950036580606</v>
       </c>
       <c r="Q20" s="5" t="n">
         <v>27</v>
@@ -7807,19 +7807,19 @@
         <v>28204</v>
       </c>
       <c r="S20" s="5" t="n">
-        <v>19254</v>
+        <v>19273</v>
       </c>
       <c r="T20" s="5" t="n">
-        <v>42353</v>
+        <v>40359</v>
       </c>
       <c r="U20" s="6" t="n">
-        <v>0.01949833460060762</v>
+        <v>0.01949833460060761</v>
       </c>
       <c r="V20" s="6" t="n">
-        <v>0.01331133848786524</v>
+        <v>0.01332405294893134</v>
       </c>
       <c r="W20" s="6" t="n">
-        <v>0.02928013594708233</v>
+        <v>0.02790178520795802</v>
       </c>
     </row>
     <row r="21">
@@ -7911,19 +7911,19 @@
         <v>37703</v>
       </c>
       <c r="E22" s="5" t="n">
-        <v>26694</v>
+        <v>27275</v>
       </c>
       <c r="F22" s="5" t="n">
-        <v>53062</v>
+        <v>53498</v>
       </c>
       <c r="G22" s="6" t="n">
         <v>0.01071434222441977</v>
       </c>
       <c r="H22" s="6" t="n">
-        <v>0.007585841736499287</v>
+        <v>0.007751083682287403</v>
       </c>
       <c r="I22" s="6" t="n">
-        <v>0.01507891632137022</v>
+        <v>0.01520290282869466</v>
       </c>
       <c r="J22" s="5" t="n">
         <v>74</v>
@@ -7932,19 +7932,19 @@
         <v>47557</v>
       </c>
       <c r="L22" s="5" t="n">
-        <v>36875</v>
+        <v>37209</v>
       </c>
       <c r="M22" s="5" t="n">
-        <v>60860</v>
+        <v>62246</v>
       </c>
       <c r="N22" s="6" t="n">
         <v>0.01276716086961461</v>
       </c>
       <c r="O22" s="6" t="n">
-        <v>0.009899665727478064</v>
+        <v>0.009989276085997844</v>
       </c>
       <c r="P22" s="6" t="n">
-        <v>0.01633862325755332</v>
+        <v>0.01671072758965996</v>
       </c>
       <c r="Q22" s="5" t="n">
         <v>116</v>
@@ -7953,19 +7953,19 @@
         <v>85260</v>
       </c>
       <c r="S22" s="5" t="n">
-        <v>69396</v>
+        <v>68356</v>
       </c>
       <c r="T22" s="5" t="n">
-        <v>105625</v>
+        <v>102832</v>
       </c>
       <c r="U22" s="6" t="n">
         <v>0.01176993981738146</v>
       </c>
       <c r="V22" s="6" t="n">
-        <v>0.009579961810551246</v>
+        <v>0.009436448353990439</v>
       </c>
       <c r="W22" s="6" t="n">
-        <v>0.01458137112166753</v>
+        <v>0.01419580547745346</v>
       </c>
     </row>
     <row r="23">
@@ -7982,19 +7982,19 @@
         <v>217997</v>
       </c>
       <c r="E23" s="5" t="n">
-        <v>193589</v>
+        <v>192122</v>
       </c>
       <c r="F23" s="5" t="n">
-        <v>249037</v>
+        <v>247857</v>
       </c>
       <c r="G23" s="6" t="n">
-        <v>0.06194984054707327</v>
+        <v>0.06194984054707329</v>
       </c>
       <c r="H23" s="6" t="n">
-        <v>0.05501365396068198</v>
+        <v>0.05459674776551306</v>
       </c>
       <c r="I23" s="6" t="n">
-        <v>0.07077089677276954</v>
+        <v>0.0704353915913114</v>
       </c>
       <c r="J23" s="5" t="n">
         <v>523</v>
@@ -8003,19 +8003,19 @@
         <v>331888</v>
       </c>
       <c r="L23" s="5" t="n">
-        <v>301781</v>
+        <v>302711</v>
       </c>
       <c r="M23" s="5" t="n">
-        <v>366896</v>
+        <v>363861</v>
       </c>
       <c r="N23" s="6" t="n">
         <v>0.08909933587462857</v>
       </c>
       <c r="O23" s="6" t="n">
-        <v>0.08101671151192272</v>
+        <v>0.0812665612354785</v>
       </c>
       <c r="P23" s="6" t="n">
-        <v>0.09849777687980074</v>
+        <v>0.09768286790288497</v>
       </c>
       <c r="Q23" s="5" t="n">
         <v>781</v>
@@ -8024,19 +8024,19 @@
         <v>549885</v>
       </c>
       <c r="S23" s="5" t="n">
-        <v>511173</v>
+        <v>512080</v>
       </c>
       <c r="T23" s="5" t="n">
-        <v>594113</v>
+        <v>591459</v>
       </c>
       <c r="U23" s="6" t="n">
-        <v>0.07591061686064378</v>
+        <v>0.07591061686064379</v>
       </c>
       <c r="V23" s="6" t="n">
-        <v>0.07056651549484695</v>
+        <v>0.07069167473609086</v>
       </c>
       <c r="W23" s="6" t="n">
-        <v>0.08201619482918987</v>
+        <v>0.08164981631490879</v>
       </c>
     </row>
     <row r="24">
@@ -8053,19 +8053,19 @@
         <v>1913118</v>
       </c>
       <c r="E24" s="5" t="n">
-        <v>1846373</v>
+        <v>1846348</v>
       </c>
       <c r="F24" s="5" t="n">
-        <v>1978712</v>
+        <v>1981073</v>
       </c>
       <c r="G24" s="6" t="n">
         <v>0.5436653892817218</v>
       </c>
       <c r="H24" s="6" t="n">
-        <v>0.5246979057341441</v>
+        <v>0.5246907986254312</v>
       </c>
       <c r="I24" s="6" t="n">
-        <v>0.5623057382484213</v>
+        <v>0.5629768785312551</v>
       </c>
       <c r="J24" s="5" t="n">
         <v>3043</v>
@@ -8074,19 +8074,19 @@
         <v>2074557</v>
       </c>
       <c r="L24" s="5" t="n">
-        <v>2024370</v>
+        <v>2023822</v>
       </c>
       <c r="M24" s="5" t="n">
-        <v>2130464</v>
+        <v>2129539</v>
       </c>
       <c r="N24" s="6" t="n">
         <v>0.5569400263187217</v>
       </c>
       <c r="O24" s="6" t="n">
-        <v>0.5434665938628694</v>
+        <v>0.5433196933557948</v>
       </c>
       <c r="P24" s="6" t="n">
-        <v>0.5719488293541315</v>
+        <v>0.5717004827154057</v>
       </c>
       <c r="Q24" s="5" t="n">
         <v>4912</v>
@@ -8095,19 +8095,19 @@
         <v>3987675</v>
       </c>
       <c r="S24" s="5" t="n">
-        <v>3895184</v>
+        <v>3904634</v>
       </c>
       <c r="T24" s="5" t="n">
-        <v>4068527</v>
+        <v>4070787</v>
       </c>
       <c r="U24" s="6" t="n">
         <v>0.5504914549629244</v>
       </c>
       <c r="V24" s="6" t="n">
-        <v>0.5377232289018379</v>
+        <v>0.5390278240056087</v>
       </c>
       <c r="W24" s="6" t="n">
-        <v>0.5616529565756547</v>
+        <v>0.5619649613567171</v>
       </c>
     </row>
     <row r="25">
@@ -8124,19 +8124,19 @@
         <v>1250722</v>
       </c>
       <c r="E25" s="5" t="n">
-        <v>1186211</v>
+        <v>1183953</v>
       </c>
       <c r="F25" s="5" t="n">
-        <v>1314717</v>
+        <v>1313079</v>
       </c>
       <c r="G25" s="6" t="n">
-        <v>0.3554273152294843</v>
+        <v>0.3554273152294844</v>
       </c>
       <c r="H25" s="6" t="n">
-        <v>0.337094847186493</v>
+        <v>0.3364530155748308</v>
       </c>
       <c r="I25" s="6" t="n">
-        <v>0.3736132808219549</v>
+        <v>0.3731477902677892</v>
       </c>
       <c r="J25" s="5" t="n">
         <v>1619</v>
@@ -8145,19 +8145,19 @@
         <v>1196289</v>
       </c>
       <c r="L25" s="5" t="n">
-        <v>1148109</v>
+        <v>1144118</v>
       </c>
       <c r="M25" s="5" t="n">
-        <v>1245263</v>
+        <v>1246477</v>
       </c>
       <c r="N25" s="6" t="n">
         <v>0.3211584244076889</v>
       </c>
       <c r="O25" s="6" t="n">
-        <v>0.3082238506491002</v>
+        <v>0.3071524756905722</v>
       </c>
       <c r="P25" s="6" t="n">
-        <v>0.3343060608255979</v>
+        <v>0.33463192262092</v>
       </c>
       <c r="Q25" s="5" t="n">
         <v>2725</v>
@@ -8166,19 +8166,19 @@
         <v>2447012</v>
       </c>
       <c r="S25" s="5" t="n">
-        <v>2364823</v>
+        <v>2366288</v>
       </c>
       <c r="T25" s="5" t="n">
-        <v>2528932</v>
+        <v>2530669</v>
       </c>
       <c r="U25" s="6" t="n">
         <v>0.3378056131129193</v>
       </c>
       <c r="V25" s="6" t="n">
-        <v>0.3264596848097799</v>
+        <v>0.32666188190663</v>
       </c>
       <c r="W25" s="6" t="n">
-        <v>0.3491146520196677</v>
+        <v>0.3493543271346429</v>
       </c>
     </row>
     <row r="26">
@@ -8195,19 +8195,19 @@
         <v>99385</v>
       </c>
       <c r="E26" s="5" t="n">
-        <v>79177</v>
+        <v>80135</v>
       </c>
       <c r="F26" s="5" t="n">
-        <v>122225</v>
+        <v>123711</v>
       </c>
       <c r="G26" s="6" t="n">
-        <v>0.02824311271730074</v>
+        <v>0.02824311271730075</v>
       </c>
       <c r="H26" s="6" t="n">
-        <v>0.02250042748309733</v>
+        <v>0.0227727123811661</v>
       </c>
       <c r="I26" s="6" t="n">
-        <v>0.03473356497552752</v>
+        <v>0.03515595760371528</v>
       </c>
       <c r="J26" s="5" t="n">
         <v>87</v>
@@ -8216,19 +8216,19 @@
         <v>74629</v>
       </c>
       <c r="L26" s="5" t="n">
-        <v>58335</v>
+        <v>58819</v>
       </c>
       <c r="M26" s="5" t="n">
-        <v>92678</v>
+        <v>94512</v>
       </c>
       <c r="N26" s="6" t="n">
-        <v>0.02003505252934612</v>
+        <v>0.02003505252934613</v>
       </c>
       <c r="O26" s="6" t="n">
-        <v>0.01566064805387241</v>
+        <v>0.01579057705639903</v>
       </c>
       <c r="P26" s="6" t="n">
-        <v>0.02488060597548315</v>
+        <v>0.02537301455739964</v>
       </c>
       <c r="Q26" s="5" t="n">
         <v>173</v>
@@ -8237,19 +8237,19 @@
         <v>174014</v>
       </c>
       <c r="S26" s="5" t="n">
-        <v>147499</v>
+        <v>148374</v>
       </c>
       <c r="T26" s="5" t="n">
-        <v>204655</v>
+        <v>205293</v>
       </c>
       <c r="U26" s="6" t="n">
-        <v>0.0240223752461311</v>
+        <v>0.02402237524613109</v>
       </c>
       <c r="V26" s="6" t="n">
-        <v>0.02036199557842528</v>
+        <v>0.02048279564638315</v>
       </c>
       <c r="W26" s="6" t="n">
-        <v>0.02825223535568106</v>
+        <v>0.02834029607620301</v>
       </c>
     </row>
     <row r="27">
